--- a/indicadores/04/tabelas/2009_biomas.xlsx
+++ b/indicadores/04/tabelas/2009_biomas.xlsx
@@ -12,16 +12,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
-    <t>LEGENDA</t>
+    <t>legenda</t>
   </si>
   <si>
-    <t>area_km2</t>
+    <t>area</t>
   </si>
   <si>
     <t>nome</t>
   </si>
   <si>
-    <t>area_km2_1</t>
+    <t>area_km2</t>
   </si>
   <si>
     <t>Extensão de agricultura e silvicultura (ano-base 2009)</t>
@@ -110,7 +110,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>72372.10000000001</v>
+        <v>74207.74782040001</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -124,7 +124,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>64812.9</v>
+        <v>100191.517033</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
